--- a/biology/Médecine/CIM-10_Chapitre_20___Causes_externes_de_morbidité_et_de_mortalité/CIM-10_Chapitre_20___Causes_externes_de_morbidité_et_de_mortalité.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_20___Causes_externes_de_morbidité_et_de_mortalité/CIM-10_Chapitre_20___Causes_externes_de_morbidité_et_de_mortalité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XX de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XX de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V01-V99 Accidents de transport
-V01-V09 Piéton blessé dans un accident de transport
-(V01) Piéton blessé dans une collision avec un cycle
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>V01-V09 Piéton blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(V01) Piéton blessé dans une collision avec un cycle
 (V02) Piéton blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V03) Piéton blessé dans une collision avec une automobile ou une camionnette
 (V04) Piéton blessé dans une collision avec un véhicule lourd ou un autobus
@@ -526,9 +546,47 @@
 (V09.1) Piéton blessé dans un accident en dehors de la circulation, sans précision
 (V09.2) Piéton blessé dans un accident de la circulation impliquant des véhicules à moteur, autres et sans précision
 (V09.3) Piéton blessé dans un accident de la circulation, sans précision
-(V09.9) Piéton blessé dans un accident de transport, sans précision
-V10-V19 Cycliste blessé dans un accident de transport
-(V10) Cycliste blessé dans une collision avec un piéton ou un animal
+(V09.9) Piéton blessé dans un accident de transport, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>V10-V19 Cycliste blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(V10) Cycliste blessé dans une collision avec un piéton ou un animal
 (V11) Cycliste blessé dans une collision avec un autre cycle
 (V12) Cycliste blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V13) Cycliste blessé dans une collision avec une automobile ou une camionnette
@@ -546,9 +604,47 @@
 (V19.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V19.6) Cycliste, sans précision, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V19.8) Cycliste [tout type] blessé dans d'autres accidents de transport précisés
-(V19.9) Cycliste [tout type] blessé dans un accident de la circulation, sans précision
-V20-V29 Motocycliste blessé dans un accident de transport
-(V20) Motocycliste blessé dans une collision avec un piéton ou un animal
+(V19.9) Cycliste [tout type] blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>V20-V29 Motocycliste blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(V20) Motocycliste blessé dans une collision avec un piéton ou un animal
 (V21) Motocycliste blessé dans une collision avec un cycle
 (V22) Motocycliste blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V23) Motocycliste blessé dans une collision avec une automobile ou une camionnette
@@ -566,9 +662,47 @@
 (V29.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V29.6) Motocycliste, sans précision, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V29.8) Motocycliste [tout type] blessé dans d'autres accidents de transport précisés
-(V29.9) Motocycliste [tout type] blessé dans un accident de la circulation, sans précision
-V30-V39 Occupant d'un véhicule à trois roues blessé dans un accident de transport
-(V30) Occupant d'un véhicule à moteur à trois roues, blessé dans une collision avec un piéton ou un animal
+(V29.9) Motocycliste [tout type] blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>V30-V39 Occupant d'un véhicule à trois roues blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(V30) Occupant d'un véhicule à moteur à trois roues, blessé dans une collision avec un piéton ou un animal
 (V31) Occupant d'un véhicule à moteur à trois roues blessé dans une collision avec un cycle
 (V32) Occupant d'un véhicule à moteur à trois roues blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V33) Occupant d'un véhicule à moteur à trois roues blessé dans une collision avec une automobile ou une camionnette
@@ -586,9 +720,47 @@
 (V39.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V39.6) Occupant, sans précision, d'un véhicule à moteur à trois roues, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V39.8) Occupant [tout type] d'un véhicule à moteur à trois roues, blessé dans d'autres accidents de transport précisés
-(V39.9) Occupant [tout type] d'un véhicule à moteur à trois roues, blessé dans un accident de la circulation, sans précision
-V40-V49 Occupant d'une automobile blessé dans un accident de transport
-(V40) Occupant d'une automobile blessé dans une collision avec un piéton ou un animal
+(V39.9) Occupant [tout type] d'un véhicule à moteur à trois roues, blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>V40-V49 Occupant d'une automobile blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(V40) Occupant d'une automobile blessé dans une collision avec un piéton ou un animal
 (V41) Occupant d'une automobile blessé dans une collision avec un cycle
 (V42) Occupant d'une automobile blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V43) Occupant d'une automobile blessé dans une collision avec une automobile ou une camionnette
@@ -606,9 +778,47 @@
 (V49.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V49.6) Occupant, sans précision, d'une automobile, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V49.8) Occupant [tout type] d'une automobile, blessé dans des autres accidents de transport précisés
-(V49.9) Occupant [tout type] d'une automobile, blessé dans un accident de la circulation, sans précision
-V50-V59 Occupant d'une camionnette blessé dans un accident de transport
-(V50) Occupant d'une camionnette blessé dans une collision avec un piéton ou un animal
+(V49.9) Occupant [tout type] d'une automobile, blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>V50-V59 Occupant d'une camionnette blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(V50) Occupant d'une camionnette blessé dans une collision avec un piéton ou un animal
 (V51) Occupant d'une camionnette blessé dans une collision avec un cycle
 (V52) Occupant d'une camionnette blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V53) Occupant d'une camionnette blessé dans une collision avec une automobile ou une camionnette
@@ -626,9 +836,47 @@
 (V59.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V59.6) Occupant, sans précision, d'une camionnette, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V59.8) Occupant [tout type] d'une camionnette, blessé dans d'autres accidents de transport précisés
-(V59.9) Occupant [tout type] d'une camionnette, blessé dans un accident de la circulation, sans précision
-V60-V69 Occupant d'un véhicule lourd blessé dans un accident de transport
-(V60) Occupant d'un véhicule lourd blessé dans une collision avec un piéton ou un animal
+(V59.9) Occupant [tout type] d'une camionnette, blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>V60-V69 Occupant d'un véhicule lourd blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(V60) Occupant d'un véhicule lourd blessé dans une collision avec un piéton ou un animal
 (V61) Occupant d'un véhicule lourd blessé dans une collision avec un cycle
 (V62) Occupant d'un véhicule lourd blessé dans une collision avec un véhicule à moteur à deux ou à trois roues
 (V63) Occupant d'un véhicule lourd blessé dans une collision avec une automobile ou une camionnette
@@ -646,9 +894,47 @@
 (V69.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V69.6) Occupant, sans précision, d'un véhicule lourd, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V69.8) Occupant [tout type] d'un véhicule lourd, blessé dans d'autres accidents de transport précisés
-(V69.9) Occupant [tout type] d'un véhicule lourd, blessé dans un accident de la circulation, sans précision
-V70-V79 Occupant d'un autobus blessé dans un accident de transport
-(V70) Occupant d'un autobus blessé dans une collision avec un piéton ou un animal
+(V69.9) Occupant [tout type] d'un véhicule lourd, blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>V70-V79 Occupant d'un autobus blessé dans un accident de transport</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(V70) Occupant d'un autobus blessé dans une collision avec un piéton ou un animal
 (V71) Occupant d'un autobus blessé dans une collision avec un cycle
 (V72) Occupant d'un autobus blessé dans une collision avec un véhicule à moteur à deux ou trois roues
 (V73) Occupant d'un autobus blessé dans une collision avec une automobile ou une camionnette
@@ -666,9 +952,47 @@
 (V79.5) Passager blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V79.6) Occupant, sans précision, d'un autobus, blessé dans une collision avec des véhicules à moteur, autres et sans précision, dans un accident de la circulation
 (V79.8) Occupant [tout type] d'un autobus, blessé dans d'autres accidents de transport précisés
-(V79.9) Occupant [tout type] d'un autobus, blessé dans un accident de la circulation, sans précision
-V80-V89 Autres accidents de transport terrestre
-(V80) Personne montant un animal ou occupant un véhicule à traction animale blessée dans un accident de transport
+(V79.9) Occupant [tout type] d'un autobus, blessé dans un accident de la circulation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>V80-V89 Autres accidents de transport terrestre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(V80) Personne montant un animal ou occupant un véhicule à traction animale blessée dans un accident de transport
 (V80.0) Chute ou éjection d'une personne montant un animal ou occupant un véhicule à traction animale dans un accident sans collision
 (V80.1) Personne montant un animal ou occupant un véhicule à traction animale blessée dans une collision avec un piéton ou un animal
 (V80.2) Personne montant un animal ou occupant un véhicule à traction animale blessée dans une collision avec un cycle
@@ -768,9 +1092,47 @@
 (V89.1) Personne blessée dans un accident avec un véhicule sans moteur, sans précision, en dehors de la circulation
 (V89.2) Personne blessée dans un accident de la circulation avec un véhicule à moteur, sans précision
 (V89.3) Personne blessée dans un accident de la circulation avec un véhicule sans moteur, sans précision
-(V89.9) Personne blessée dans un accident avec un véhicule, sans précision
-V90-V94 Accidents de transport par eau
-'Remarques :
+(V89.9) Personne blessée dans un accident avec un véhicule, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>V90-V94 Accidents de transport par eau</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>'Remarques :
 .0	Navire marchand
 .1	Navire à passagers (Ferry, Paquebot)
 .2	Bateau de pêche
@@ -785,9 +1147,47 @@
 (V91) Accident de bateau provoquant d'autres lésions traumatiques
 (V92) Noyade et submersion durant un transport par eau, sans accident de bateau
 (V93) Accident à bord d'un bateau, sans accident du bateau, ne causant ni noyade ni submersion
-(V94) Accidents de transport par eau, autres et sans précision
-V95-V97 Accidents de transport aérien et de vol spatial
-(V95) Accident d'aéronef à moteur dans lequel un occupant est blessé
+(V94) Accidents de transport par eau, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>V95-V97 Accidents de transport aérien et de vol spatial</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(V95) Accident d'aéronef à moteur dans lequel un occupant est blessé
 (V95.0) Accident d'hélicoptère blessant un occupant
 (V95.1) Accident de planeur à moteur, ultra léger motorisé (ULM) blessant un occupant
 (V95.2) Accident d'autres aéronefs privés à voilure fixe blessant un occupant
@@ -806,13 +1206,88 @@
 (V97.1) Personne blessée en montant ou descendant de l'aéronef
 (V97.2) Parachutiste blessé dans un accident de transport aérien
 (V97.3) Personne au sol blessée dans un accident de transport aérien
-(V97.8) Autres accidents de transport aérien, non classés ailleurs
-V98-V99 Accidents de transport, autres et sans précision
-(V98) Autres accidents de transport précisés
-(V99) Accident de transport, sans précision
-W00-X59 Autres causes externes de lésion traumatique accidentelle
-W00-W19 Chutes
-(W00) Chute de plain-pied due à la glace et la neige
+(V97.8) Autres accidents de transport aérien, non classés ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V01-V99 Accidents de transport</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>V98-V99 Accidents de transport, autres et sans précision</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(V98) Autres accidents de transport précisés
+(V99) Accident de transport, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>W00-W19 Chutes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(W00) Chute de plain-pied due à la glace et la neige
 (W01) Chute de plain-pied résultant de glissade, faux-pas et trébuchement
 (W02) Chute impliquant des patins à glace, des skis, des patins à roulettes ou une planche à roulettes
 (W03) Autre chute de plain-pied due à une collision avec, ou une poussée par un tiers
@@ -831,37 +1306,632 @@
 (W16) Plongée ou saut dans l'eau provoquant une lésion traumatique autre que noyade ou submersion
 (W17) Autre chute d'un niveau à un autre
 (W18) Autre chute de plain-pied
-(W19) Chute, sans précision
-W20-W49 Exposition à des forces mécaniques
-(W20) Heurt causé par le lancement</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+(W19) Chute, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>W20-W49 Exposition à des forces mécaniques</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(W20) Heurt causé par le lancement ou la chute d'un objet
+(W21) Heurt contre ou par du matériel de sport
+(W22) Heurt contre ou par d'autres objets
+(W23) Compression, écrasement ou blocage dans des objets ou entre des objets
+(W24) Contact avec des dispositifs de levage et de transmission, non classés ailleurs
+(W25) Contact avec du verre tranchant
+(W26) Contact avec un couteau, une épée ou un poignard
+(W27) Contact avec un outil à main non électrique
+(W28) Contact avec tondeuse à gazon à moteur
+(W29) Contact avec d'autres outils manuels électriques et appareils électro-ménagers
+(W30) Contact avec du matériel agricole
+(W31) Contact avec des appareils, autres et sans précision
+(W32) Décharge d'arme de poing
+(W33) Décharge de fusil, de carabine et d'arme de plus grande taille
+(W34) Décharge d'armes, autres et sans précision
+(W35) Explosion et éclatement d'une chaudière
+(W36) Explosion et éclatement d'une bouteille de gaz
+(W37) Explosion et éclatement de pneumatique ou de tuyau sous pression
+(W38) Explosion et éclatement d'autres appareils précisés sous pression
+(W39) Projections de feu d'artifice
+(W40) Explosion d'autres matériaux
+(W41) Exposition à un jet à haute pression
+(W42) Exposition au bruit
+(W43) Exposition aux vibrations
+(W44) Corps étranger pénétrant dans l'œil ou un orifice naturel
+(W45) Corps étranger ou objet pénétrant dans la peau
+(W46) Contact avec aiguille à usage médical [aiguille hypodermique]
+(W49) Exposition à des forces mécaniques, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>W50-W64 Exposition à des forces animées</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(W50) Coup, torsion, morsure ou écorchure infligés par un tiers
+(W51) Collision entre deux personnes
+(W52) Ecrasement, poussée ou piétinement par une foule humaine
+(W53) Morsure de rat
+(W54) Morsure ou coup donné par un chien
+(W55) Morsure ou coup donné par d'autres mammifères
+(W56) Contact avec un animal marin
+(W57) Morsure ou piqûre non venimeuse d'insectes et autres arthropodes
+(W58) Morsure ou coup donné par un crocodile ou un alligator
+(W59) Morsure ou écrasement par d'autres reptiles
+(W60) Contact avec des épines de plantes et des feuilles acérées
+(W64) Exposition à des forces animées, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>W65-W74 Noyade et submersion accidentelles</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(W65) Noyade et submersion dans une baignoire
+(W66) Noyade et submersion consécutives à une chute dans une baignoire
+(W67) Noyade et submersion dans une piscine
+(W68) Noyade et submersion consécutives à une chute dans une piscine
+(W69) Noyade et submersion dans des eaux naturelles
+(W70) Noyade et submersion consécutives à une chute dans des eaux naturelles
+(W73) Autres formes de noyade et submersion précisées
+(W74) Noyade et submersion, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>W75-W84 Autres accidents affectant la respiration</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(W75) Suffocation et strangulation accidentelles dans un lit
+(W76) Autre pendaison et strangulation accidentelles
+(W77) Danger pour la respiration dû à un affaissement du sol, une coulée de terre et d'autres substances
+(W78) Inhalation du contenu de l'estomac
+(W79) Inhalation et ingestion d'aliments provoquant une obstruction des voies respiratoires
+(W80) Inhalation et ingestion d'autres objets provoquant une obstruction des voies respiratoires
+(W81) Confinement ou emprisonnement dans un environnement pauvre en oxygène
+(W83) Autres dangers pour la respiration
+(W84) Danger pour la respiration, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>W85-W99 Exposition au courant électrique, aux rayonnements et à des températures et pressions extrêmes de l'air ambiant</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(W85) Exposition aux lignes électriques
+(W86) Exposition à d'autres formes précisées de courant électrique
+(W87) Exposition au courant électrique, sans précision
+(W88) Exposition aux rayonnements ionisants
+(W89) Exposition à une source lumineuse artificielle visible et aux ultraviolets
+(W90) Exposition à d'autres rayonnements non ionisants
+(W91) Exposition aux rayonnements, sans précision
+(W92) Exposition à une chaleur artificielle excessive
+(W93) Exposition à un froid artificiel excessif
+(W94) Exposition à une dépression et une hyperpression et à des changements de pression barométriques
+(W99) Exposition à des facteurs propres à un environnement artificiel, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X00-X09 Exposition à la fumée, au feu et aux flammes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(X01) Exposition à un feu non maîtrisé, hors d'un bâtiment ou d'un ouvrage
+(X02) Exposition à un feu maîtrisé, dans un bâtiment ou un ouvrage
+(X03) Exposition à un feu maîtrisé, hors d'un bâtiment ou d'un ouvrage
+(X04) Exposition à l'inflammation d'une substance très inflammable
+(X05) Exposition à l'inflammation ou la fonte de vêtements de nuit
+(X06) Exposition à l'inflammation ou la fonte d'autres vêtements et parures
+(X08) Exposition à d'autres fumées, feux et flammes précisés
+(X09) Exposition à la fumée, au feu et aux flammes, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X10-X19 Contact avec une source de chaleur et des substances brûlantes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(X10) Contact avec des boissons, aliments, graisses comestibles et huiles de cuisson brûlants
+(X11) Contact avec de l'eau bouillante provenant d'un robinet
+(X12) Contact avec d'autres liquides brûlants
+(X13) Contact avec de la vapeur d'eau et des vapeurs brûlantes
+(X14) Contact avec de l'air et des gaz brûlants
+(X15) Contact avec des appareils ménagers brûlants
+(X16) Contact avec des appareils de chauffage, radiateurs et tuyaux brûlants
+(X17) Contact avec des moteurs, des machines et des outils brûlants
+(X18) Contact avec d'autres métaux chauffés
+(X19) Contact avec des sources de chaleur et des substances brûlantes, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X20-X29 Contact avec des animaux venimeux et des plantes vénéneuses</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(X20) Contact avec des serpents et des lézards venimeux
+(X21) Contact avec des araignées venimeuses
+(X22) Contact avec des scorpions
+(X23) Contact avec des frelons, guêpes et abeilles
+(X24) Contact avec des centipodes et myriapodes venimeux (tropicaux)
+(X25) Contact avec d'autres arthropodes venimeux
+(X26) Contact avec des animaux venimeux marins et des plantes vénéneuses marines
+(X27) Contact avec d'autres animaux venimeux précisés
+(X28) Contact avec d'autres plantes vénéneuses précisées
+(X29) Contact avec un animal venimeux ou une plante vénéneuse, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X30-X39 Exposition aux forces de la nature</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(X30) Exposition à une chaleur naturelle excessive
+(X31) Exposition à un froid naturel excessif
+(X32) Exposition à la lumière solaire
+(X33) Foudre
+(X34) Tremblement de terre
+(X35) Eruption volcanique
+(X36) Avalanche, glissement de terrain et autres mouvements telluriques
+(X37) Tempête cataclysmique
+(X38) Inondation
+(X39) Exposition à des forces de la nature, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X40-X49 Intoxication accidentelle par des substances nocives et exposition à ces substances</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(X40) Intoxication accidentelle par des analgésiques, antipyrétiques et antirhumatismaux, non opiacés et exposition à ces produits
+(X41) Intoxication accidentelle par des anti-épileptiques, sédatifs, hypnotiques, antiparkinsoniens et psychotropes et exposition à ces produits, non classés ailleurs
+(X42) Intoxication accidentelle par des narcotiques et psychodysleptiques [hallucinogènes] et exposition à ces produits, non classés ailleurs
+(X43) Intoxication accidentelle par d'autres substances pharmacologiques agissant sur le système nerveux autonome et exposition à ces substances
+(X44) Intoxication accidentelle par, et exposition à médicaments et substances biologiques, autres et sans précision
+(X45) Intoxication accidentelle par l'alcool et exposition à l'alcool
+(X46) Intoxication accidentelle par des solvants organiques et des hydrocarbures halogénés et leurs émanations et exposition à ces produits
+(X47) Intoxication accidentelle par d'autres gaz et émanations et exposition à ces produits
+(X48) Intoxication accidentelle par des pesticides et exposition à ces produits
+(X49) Intoxication accidentelle par des produits chimiques et substances nocives et exposition à ces produits, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X50-X57 Surmenage, voyages et privations</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(X50) Surmenage et mouvements épuisants ou répétés
+(X51) Voyage et mouvement
+(X52) Séjour prolongé en apesanteur
+(X53) Privation d'aliments
+(X54) Privation d'eau
+(X57) Privation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>V01-X59 Accidents</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W00-X59 Autres causes externes de lésion traumatique accidentelle</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X58-X59 Exposition accidentelle à des facteurs, autres et sans précision</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(X58) Exposition à d'autres facteurs précisés
+(X59) Exposition à des facteurs, sans précision
+(X59.0) Exposition à des facteurs non précisés responsables de fracture
+(X59.9) Exposition à des facteurs non précisés responsables de lésions autres et non précisées
+(X59) Exposition à des facteurs, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>X60-X84 Lésions auto-infligées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>(X60) Auto-intoxication par des analgésiques, antipyrétiques et antirhumatismaux non opiacés et exposition à ces produits
 (X61) Auto-intoxication par des anti-épileptiques, sédatifs, hypnotiques, antiparkinsoniens et psychotropes et exposition à ces produits, non classés ailleurs
@@ -891,31 +1961,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>X85-Y09 Agressions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>(X85) Agression par médicaments et substances biologiques
 (X86) Agression par une substance corrosive
@@ -956,31 +2028,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Y10-Y34 Evénements dont l'intention n'est pas déterminée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>(Y10) Intoxication par des analgésiques, antipyrétiques et antirhumatismaux non opiacés et exposition à ces produits, intention non déterminée
 (Y11) Intoxication par des anti-épileptiques, sédatifs, hypnotiques, antiparkinsoniens et psychotropes et exposition à ces produits, non classés ailleurs, intention non déterminée
@@ -1010,31 +2084,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Y35-Y36 Intervention de la force publique et faits de guerre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>(Y35) Intervention de la force publique
 (Y35.0) Intervention de la force publique impliquant l'usage d'armes à feu
@@ -1059,34 +2135,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Y40-Y84 Complications de soins médicaux et chirurgicaux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Y40-Y59 Médicaments et substances biologiques ayant provoqué des effets indésirables au cours de leur usage thérapeutique
-(Y40) Antibiotiques systémiques
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Y40-Y59 Médicaments et substances biologiques ayant provoqué des effets indésirables au cours de leur usage thérapeutique</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Y40) Antibiotiques systémiques
 (Y40.0) Pénicillines
 (Y40.1) Céphalosporines et autres bêta-lactamines
 (Y40.2) Groupe du chloramphénicol
@@ -1280,9 +2361,43 @@
 (Y59.2) Vaccins antiprotozoaires
 (Y59.3) Immunoglobulines
 (Y59.8) Autres vaccins et substances biologiques précisés
-(Y59.9) Vaccin ou substance biologique, sans précision
-Y60-Y69 Accidents et complications au cours d'actes médicaux et chirurgicaux
-(Y60) Coupure, piqûre, perforation ou hémorragie accidentelles au cours d'actes médicaux et chirurgicaux
+(Y59.9) Vaccin ou substance biologique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Y40-Y84 Complications de soins médicaux et chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Y60-Y69 Accidents et complications au cours d'actes médicaux et chirurgicaux</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Y60) Coupure, piqûre, perforation ou hémorragie accidentelles au cours d'actes médicaux et chirurgicaux
 (Y60.0) Au cours d'une intervention chirurgicale
 (Y60.1) Au cours d'une perfusion ou transfusion
 (Y60.2) Au cours d'une dialyse rénale ou autre perfusion
@@ -1338,9 +2453,43 @@
 (Y65.5) Exécution d'une intervention non appropriée
 (Y65.8) Autres accidents et complications précisés au cours d'actes médicaux et chirurgicaux
 (Y66) Non-administration de soins médicaux et chirurgicaux
-(Y69) Accident et complication au cours d'un acte médical et chirurgical, sans précision
-Y70-Y82 Appareils médicaux associés à des accidents au cours d'actes diagnostiques et thérapeutiques
-Remarques :
+(Y69) Accident et complication au cours d'un acte médical et chirurgical, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Y40-Y84 Complications de soins médicaux et chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Y70-Y82 Appareils médicaux associés à des accidents au cours d'actes diagnostiques et thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Remarques :
 .0	Appareil pour diagnostic et monitorage
 .1	Appareil pour traitement (non chirurgical) et rééducation
 .2	Prothèse et autres implants, matériel et accessoires
@@ -1358,9 +2507,43 @@
 (Y79) Appareils orthopédiques, associés à des accidents
 (Y80) Appareils de médecine physique, associés à des accidents
 (Y81) Appareils utilisés en chirurgie générale et esthétique, associés à des accidents
-(Y82) Appareils associés à des accidents, autres et sans précision
-Y83-Y84 Actes chirurgicaux et autres actes médicaux à l'origine de réactions anormales du patient ou de complications ultérieures, sans mention d'accident au cours de l'intervention
-(Y83) Opération et autre acte chirurgical à l'origine de réactions anormales du patient ou de complications ultérieures, sans mention d'accident au cours de l'intervention
+(Y82) Appareils associés à des accidents, autres et sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Y40-Y84 Complications de soins médicaux et chirurgicaux</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Y83-Y84 Actes chirurgicaux et autres actes médicaux à l'origine de réactions anormales du patient ou de complications ultérieures, sans mention d'accident au cours de l'intervention</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Y83) Opération et autre acte chirurgical à l'origine de réactions anormales du patient ou de complications ultérieures, sans mention d'accident au cours de l'intervention
 (Y83.0) Intervention chirurgicale avec transplantation d'un organe entier
 (Y83.1) Intervention chirurgicale avec implantation d'une prothèse interne
 (Y83.2) Intervention chirurgicale avec anastomose, pontage ou greffe
@@ -1384,31 +2567,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Y85-Y89 Séquelles de causes externes de morbidité et de mortalité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>(Y85) Séquelles d'un accident de transport
 (Y85.0) Séquelles d'un accident de véhicule à moteur
@@ -1430,31 +2615,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_20_:_Causes_externes_de_morbidité_et_de_mortalité</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_20_:_Causes_externes_de_morbidit%C3%A9_et_de_mortalit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Y90-Y98 Facteurs supplémentaires se rapportant aux causes de morbidité et de mortalité classées ailleurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>(Y90) Preuves du rôle de l'alcool confirmé par l'alcoolémie
 (Y90.0) Alcoolémie inférieure à 20 mg/100 ml
